--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/ranking_global_final.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/ranking_global_final.xlsx
@@ -40,16 +40,16 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>MCPS</t>
+  </si>
+  <si>
+    <t>AV-MCPS</t>
+  </si>
+  <si>
     <t>DeepAR</t>
-  </si>
-  <si>
-    <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.5790850416752346</v>
+        <v>0.5700183618786735</v>
       </c>
       <c r="C2">
-        <v>0.316865073193368</v>
+        <v>0.3096789872861978</v>
       </c>
       <c r="D2">
-        <v>0.5471822796125235</v>
+        <v>0.5432789678310608</v>
       </c>
       <c r="E2">
-        <v>0.2082366093486816</v>
+        <v>0.204659893930405</v>
       </c>
       <c r="F2">
-        <v>4.003325553388817</v>
+        <v>5.151485553912396</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,19 +467,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7922620741564405</v>
+        <v>0.8293788710082811</v>
       </c>
       <c r="C3">
-        <v>0.594522861231357</v>
+        <v>0.7071392045153299</v>
       </c>
       <c r="D3">
-        <v>0.7504118657508301</v>
+        <v>0.852612996585814</v>
       </c>
       <c r="E3">
-        <v>0.2142389830469155</v>
+        <v>0.2079542034971669</v>
       </c>
       <c r="F3">
-        <v>10.20859035826827</v>
+        <v>17.10588813287047</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,19 +487,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1.092799121378178</v>
+        <v>0.8355855680630652</v>
       </c>
       <c r="C4">
-        <v>2.767152601975156</v>
+        <v>0.704556109026526</v>
       </c>
       <c r="D4">
-        <v>2.532169497432772</v>
+        <v>0.8431884608296037</v>
       </c>
       <c r="E4">
-        <v>0.2167307735831896</v>
+        <v>0.2097119174583079</v>
       </c>
       <c r="F4">
-        <v>41.67291199046596</v>
+        <v>17.60344290474935</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,19 +507,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1.193516280410951</v>
+        <v>1.492331161144205</v>
       </c>
       <c r="C5">
-        <v>1.914061380009761</v>
+        <v>3.374684288689977</v>
       </c>
       <c r="D5">
-        <v>1.603716188396451</v>
+        <v>2.261350815795154</v>
       </c>
       <c r="E5">
-        <v>0.2223198475372553</v>
+        <v>0.2190088958928648</v>
       </c>
       <c r="F5">
-        <v>25.0958493858064</v>
+        <v>70.81191720706144</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1.205224119734077</v>
+        <v>1.564956055690459</v>
       </c>
       <c r="C6">
-        <v>2.010661902945901</v>
+        <v>3.836781157564431</v>
       </c>
       <c r="D6">
-        <v>1.668288802077357</v>
+        <v>2.4516861950297</v>
       </c>
       <c r="E6">
-        <v>0.2194387672562912</v>
+        <v>0.216710954995131</v>
       </c>
       <c r="F6">
-        <v>31.36995509271803</v>
+        <v>95.32630144233451</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,19 +547,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1.460207311334481</v>
+        <v>1.591909950102804</v>
       </c>
       <c r="C7">
-        <v>2.079434491948488</v>
+        <v>5.894402378625512</v>
       </c>
       <c r="D7">
-        <v>1.424067990762282</v>
+        <v>3.702723497798889</v>
       </c>
       <c r="E7">
-        <v>0.2145170893444929</v>
+        <v>0.2142132579565945</v>
       </c>
       <c r="F7">
-        <v>25.32917133400027</v>
+        <v>117.0637238690478</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,19 +567,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>2.084750026826011</v>
+        <v>2.10756737220238</v>
       </c>
       <c r="C8">
-        <v>2.452365527401299</v>
+        <v>4.941469347974447</v>
       </c>
       <c r="D8">
-        <v>1.176335529845262</v>
+        <v>2.344631736640844</v>
       </c>
       <c r="E8">
-        <v>0.2839391131968524</v>
+        <v>0.2126180003926161</v>
       </c>
       <c r="F8">
-        <v>25.62183889617705</v>
+        <v>117.4034880978905</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,19 +587,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>2.833842953359551</v>
+        <v>3.96043938382785</v>
       </c>
       <c r="C9">
-        <v>5.537922056985758</v>
+        <v>10.59636957838208</v>
       </c>
       <c r="D9">
-        <v>1.954209230409361</v>
+        <v>2.675554036163648</v>
       </c>
       <c r="E9">
-        <v>0.2184672420395343</v>
+        <v>0.2160962634594784</v>
       </c>
       <c r="F9">
-        <v>59.96674225396534</v>
+        <v>162.0408518221075</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,19 +607,19 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>3.029907579856333</v>
+        <v>4.281283325875441</v>
       </c>
       <c r="C10">
-        <v>5.915123086460873</v>
+        <v>11.33643502672677</v>
       </c>
       <c r="D10">
-        <v>1.952245383914101</v>
+        <v>2.647905817914699</v>
       </c>
       <c r="E10">
-        <v>0.2135499504519238</v>
+        <v>0.2075327905730808</v>
       </c>
       <c r="F10">
-        <v>65.8636076566119</v>
+        <v>181.3513094128286</v>
       </c>
     </row>
   </sheetData>
